--- a/第1周--文档进度/Group4-需求式样书.xlsx
+++ b/第1周--文档进度/Group4-需求式样书.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\各位文件\钉钉\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="6" r:id="rId1"/>
@@ -146,7 +151,7 @@
     <t>需求仕样书</t>
   </si>
   <si>
-    <t>（开发部）</t>
+    <t>（第四组-四驱低音炮开发部）</t>
   </si>
   <si>
     <t>xxx公司</t>
@@ -198,6 +203,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>V</t>
@@ -206,6 +212,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.2</t>
@@ -222,6 +229,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>V</t>
@@ -230,6 +238,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.3</t>
@@ -246,6 +255,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>V</t>
@@ -254,6 +264,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.4</t>
@@ -270,6 +281,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>V</t>
@@ -278,6 +290,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.5</t>
@@ -294,6 +307,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>V</t>
@@ -302,6 +316,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.6</t>
@@ -318,6 +333,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>V</t>
@@ -326,6 +342,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.7</t>
@@ -339,6 +356,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>V</t>
@@ -347,6 +365,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.8</t>
@@ -690,6 +709,7 @@
         <i/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>对系统可靠性的需求应在此处说明。以下是一些建议：
@@ -704,6 +724,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -718,6 +739,7 @@
         <i/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>详细描述与系统安全性、完整性或与登录到该系统的使用人员的隐私相关的需求，这些问题会影响到软件系统的使用以及创建或使用的数据的保护。定义用户身份确认或授权需求。明确产品必须满足达到安全性或保密性策略。
@@ -727,6 +749,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -765,6 +788,7 @@
         <i/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>说明此文档的范围、它的相关项目，以及受到此文档影响的任何其他事物</t>
@@ -773,6 +797,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -799,6 +824,7 @@
         <i/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>描述项目为了构建目标系统可能形成或操作的方式</t>
@@ -807,6 +833,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -837,20 +864,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\)"/>
     <numFmt numFmtId="179" formatCode="mmm"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -872,6 +895,7 @@
       <i/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -885,6 +909,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -892,11 +917,13 @@
       <i/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -907,7 +934,7 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -919,33 +946,38 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="36"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -959,6 +991,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="18"/>
       <name val="楷体_GB2312"/>
       <charset val="134"/>
@@ -967,17 +1007,19 @@
       <b/>
       <sz val="10.5"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -985,172 +1027,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="仿宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <charset val="255"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1161,46 +1041,71 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="明朝"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="楷体_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="仿宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="黑体"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,175 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,26 +1124,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1471,85 +1190,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1564,215 +1209,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="53" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="53" fillId="33" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="38" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="36" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="15" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="183" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1863,24 +1340,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1893,70 +1358,70 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="21" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="59" applyBorder="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="21" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="21" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1965,155 +1430,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="72">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="24">
+    <cellStyle name="Calc Currency (0)" xfId="20"/>
+    <cellStyle name="Date" xfId="22"/>
     <cellStyle name="Grey" xfId="1"/>
+    <cellStyle name="Header1" xfId="15"/>
+    <cellStyle name="Header2" xfId="14"/>
     <cellStyle name="Input [yellow]" xfId="2"/>
-    <cellStyle name="段落标题1" xfId="3"/>
+    <cellStyle name="New Times Roman" xfId="13"/>
+    <cellStyle name="Normal - Style1" xfId="17"/>
     <cellStyle name="Normal_#10-Headcount" xfId="4"/>
     <cellStyle name="Percent [2]" xfId="5"/>
-    <cellStyle name="样式 1" xfId="6"/>
     <cellStyle name="標準_(D)日程計画" xfId="7"/>
+    <cellStyle name="表示済みのハイパーリンク_02_1st_2ndOTP対応機能一覧_一応完成版" xfId="18"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_封页" xfId="21"/>
+    <cellStyle name="段落标题1" xfId="3"/>
     <cellStyle name="段落标题2" xfId="8"/>
+    <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="23"/>
     <cellStyle name="桁区切り_(D)日程計画" xfId="9"/>
     <cellStyle name="普通_laroux" xfId="10"/>
     <cellStyle name="千位[0]_laroux" xfId="11"/>
+    <cellStyle name="千位_laroux" xfId="19"/>
     <cellStyle name="通貨 [0.00]_(D)日程計画" xfId="12"/>
-    <cellStyle name="New Times Roman" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="14" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="15" builtinId="42"/>
-    <cellStyle name="Header2" xfId="16"/>
-    <cellStyle name="强调文字颜色 4" xfId="17" builtinId="41"/>
-    <cellStyle name="输入" xfId="18" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="19" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="20" builtinId="38"/>
-    <cellStyle name="Header1" xfId="21"/>
-    <cellStyle name="通貨_(D)日程計画" xfId="22"/>
-    <cellStyle name="货币" xfId="23" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="24" builtinId="37"/>
-    <cellStyle name="Normal - Style1" xfId="25"/>
-    <cellStyle name="百分比" xfId="26" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="27" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="28" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="30" builtinId="32"/>
-    <cellStyle name="表示済みのハイパーリンク_02_1st_2ndOTP対応機能一覧_一応完成版" xfId="31"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44"/>
-    <cellStyle name="计算" xfId="33" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="好" xfId="37" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="汇总" xfId="39" builtinId="25"/>
-    <cellStyle name="差" xfId="40" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="41" builtinId="23"/>
-    <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="43" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="44" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="45" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="46" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="47" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="49" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9"/>
-    <cellStyle name="标题" xfId="51" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="52" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="53" builtinId="11"/>
-    <cellStyle name="千位_laroux" xfId="54"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="55" builtinId="40"/>
-    <cellStyle name="注释" xfId="56" builtinId="10"/>
-    <cellStyle name="Calc Currency (0)" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="58" builtinId="50"/>
-    <cellStyle name="常规_封页" xfId="59"/>
-    <cellStyle name="强调文字颜色 5" xfId="60" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
-    <cellStyle name="超链接" xfId="62" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="63" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="64" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="65" builtinId="47"/>
-    <cellStyle name="Date" xfId="66"/>
-    <cellStyle name="标题 3" xfId="67" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="68" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="70"/>
-    <cellStyle name="链接单元格" xfId="71" builtinId="24"/>
+    <cellStyle name="通貨_(D)日程計画" xfId="16"/>
+    <cellStyle name="样式 1" xfId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
@@ -2154,7 +1581,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="文件封面"/>
@@ -2177,7 +1604,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="文件封面"/>
@@ -2202,7 +1629,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
@@ -2243,7 +1670,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="引言"/>
@@ -2264,7 +1691,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="文件封面"/>
@@ -2321,7 +1748,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
@@ -2348,7 +1775,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
@@ -2395,7 +1822,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="表紙"/>
@@ -2723,352 +2150,354 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="7" width="9" style="60"/>
-    <col min="8" max="8" width="15" style="60" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="60"/>
+    <col min="1" max="7" width="9" style="56"/>
+    <col min="8" max="8" width="15" style="56" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" s="61" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A1" s="64"/>
-    </row>
-    <row r="2" s="61" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A2" s="64"/>
-    </row>
-    <row r="3" s="62" customFormat="1" ht="21" spans="1:8">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="82"/>
-    </row>
-    <row r="4" s="62" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-    </row>
-    <row r="5" s="61" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A5" s="66"/>
-    </row>
-    <row r="6" s="61" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A6" s="66"/>
-    </row>
-    <row r="7" s="61" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="66"/>
-    </row>
-    <row r="8" s="61" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A8" s="66"/>
-    </row>
-    <row r="9" s="61" customFormat="1" ht="18.75" hidden="1" spans="1:1">
-      <c r="A9" s="66"/>
-    </row>
-    <row r="10" s="61" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A10" s="66"/>
-    </row>
-    <row r="11" s="61" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A11" s="66"/>
-    </row>
-    <row r="12" s="61" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A12" s="67"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" s="62" customFormat="1" ht="46.5" spans="1:8">
-      <c r="A13" s="68" t="s">
+    <row r="1" spans="1:9" s="57" customFormat="1" ht="22.5">
+      <c r="A1" s="60"/>
+    </row>
+    <row r="2" spans="1:9" s="57" customFormat="1" ht="22.5">
+      <c r="A2" s="60"/>
+    </row>
+    <row r="3" spans="1:9" s="58" customFormat="1" ht="21">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="1:9" s="58" customFormat="1" ht="23.25">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+    </row>
+    <row r="5" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A5" s="61"/>
+    </row>
+    <row r="6" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A6" s="61"/>
+    </row>
+    <row r="7" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A8" s="61"/>
+    </row>
+    <row r="9" spans="1:9" s="57" customFormat="1" ht="18.75" hidden="1">
+      <c r="A9" s="61"/>
+    </row>
+    <row r="10" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A10" s="61"/>
+    </row>
+    <row r="11" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A11" s="61"/>
+    </row>
+    <row r="12" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A12" s="62"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" s="58" customFormat="1" ht="46.5">
+      <c r="A13" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-    </row>
-    <row r="14" s="62" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" s="62" customFormat="1" ht="42.75" spans="1:8">
-      <c r="A15" s="72" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+    </row>
+    <row r="14" spans="1:9" s="58" customFormat="1" ht="15.75">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" s="58" customFormat="1" ht="46.5">
+      <c r="A15" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-    </row>
-    <row r="16" s="61" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A16" s="73"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" s="61" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A17" s="74"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" s="61" customFormat="1" ht="22.5" spans="1:9">
-      <c r="A18" s="75" t="s">
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A16" s="66"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A17" s="67"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" s="57" customFormat="1" ht="22.5">
+      <c r="A18" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" s="61" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A19" s="67"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" s="61" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A20" s="67"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" s="61" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A21" s="67"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-    </row>
-    <row r="22" s="61" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A22" s="67"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" s="61" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A23" s="67"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" s="61" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A24" s="67"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" s="61" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A25" s="67"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-    </row>
-    <row r="26" s="61" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A26" s="67"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-    </row>
-    <row r="27" s="61" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A27" s="67"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-    </row>
-    <row r="28" s="62" customFormat="1" ht="21.75" spans="1:8">
-      <c r="A28" s="76" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A19" s="62"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A20" s="62"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A21" s="62"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A22" s="62"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A23" s="62"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A24" s="62"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A25" s="62"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A26" s="62"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9" s="57" customFormat="1" ht="18.75">
+      <c r="A27" s="62"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:9" s="58" customFormat="1" ht="22.5">
+      <c r="A28" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-    </row>
-    <row r="29" s="62" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A29" s="69"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-    </row>
-    <row r="30" s="62" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A30" s="69"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-    </row>
-    <row r="31" s="62" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A31" s="69"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-    </row>
-    <row r="32" s="63" customFormat="1" spans="1:8">
-      <c r="A32" s="77" t="s">
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+    </row>
+    <row r="29" spans="1:9" s="58" customFormat="1" ht="15.75">
+      <c r="A29" s="63"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+    </row>
+    <row r="30" spans="1:9" s="58" customFormat="1" ht="15.75">
+      <c r="A30" s="63"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" s="58" customFormat="1" ht="15.75">
+      <c r="A31" s="63"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+    </row>
+    <row r="32" spans="1:9" s="59" customFormat="1">
+      <c r="A32" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="77" t="s">
+      <c r="B32" s="69"/>
+      <c r="C32" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="77" t="s">
+      <c r="D32" s="69"/>
+      <c r="E32" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="84" t="s">
+      <c r="F32" s="69"/>
+      <c r="G32" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="78"/>
-    </row>
-    <row r="33" s="63" customFormat="1" spans="1:8">
-      <c r="A33" s="77" t="s">
+      <c r="H32" s="69"/>
+    </row>
+    <row r="33" spans="1:8" s="59" customFormat="1">
+      <c r="A33" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="77" t="s">
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-    </row>
-    <row r="34" s="61" customFormat="1"/>
-    <row r="35" s="61" customFormat="1"/>
-    <row r="36" s="61" customFormat="1"/>
-    <row r="37" s="61" customFormat="1"/>
-    <row r="38" s="61" customFormat="1"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+    </row>
+    <row r="34" spans="1:8" s="57" customFormat="1"/>
+    <row r="35" spans="1:8" s="57" customFormat="1"/>
+    <row r="36" spans="1:8" s="57" customFormat="1"/>
+    <row r="37" spans="1:8" s="57" customFormat="1"/>
+    <row r="38" spans="1:8" s="57" customFormat="1"/>
     <row r="55" spans="1:1">
-      <c r="A55" s="80"/>
+      <c r="A55" s="70"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="81"/>
+      <c r="A56" s="71"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="9">
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
   </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -3076,335 +2505,334 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="50.7" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" spans="1:5">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42" t="s">
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="60"/>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="43" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="60"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:5">
-      <c r="A3" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="E2" s="56"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="60"/>
-    </row>
-    <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B4" s="48" t="s">
+      <c r="E3" s="56"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="60"/>
-    </row>
-    <row r="5" ht="15.75" spans="1:5">
-      <c r="A5" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="60"/>
-    </row>
-    <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="E5" s="56"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="60"/>
-    </row>
-    <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B7" s="48" t="s">
+      <c r="E6" s="56"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="60"/>
-    </row>
-    <row r="8" ht="15.75" spans="1:5">
-      <c r="A8" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B8" s="48" t="s">
+      <c r="E7" s="56"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="60"/>
-    </row>
-    <row r="9" ht="15.75" spans="1:5">
-      <c r="A9" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="E8" s="56"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="60"/>
-    </row>
-    <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B10" s="48" t="s">
+      <c r="E9" s="56"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="60"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:5">
-      <c r="A11" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B11" s="51" t="s">
+      <c r="E10" s="56"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="60"/>
-    </row>
-    <row r="12" ht="15.75" spans="1:5">
-      <c r="A12" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B12" s="51" t="s">
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="60"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B13" s="51" t="s">
+      <c r="E12" s="56"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="60"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:5">
-      <c r="A14" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B14" s="51" t="s">
+      <c r="E13" s="56"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="60"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:5">
-      <c r="A15" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="E14" s="56"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="60"/>
-    </row>
-    <row r="16" ht="28.5" spans="1:5">
-      <c r="A16" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B16" s="51" t="s">
+      <c r="E15" s="56"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.5">
+      <c r="A16" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="60"/>
-    </row>
-    <row r="17" ht="28.5" spans="1:5">
-      <c r="A17" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B17" s="51" t="s">
+      <c r="E16" s="56"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.5">
+      <c r="A17" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="60"/>
-    </row>
-    <row r="18" ht="15.75" spans="1:5">
-      <c r="A18" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B18" s="51" t="s">
+      <c r="E17" s="56"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="60"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:5">
-      <c r="A19" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B19" s="51" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="56"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="60"/>
-    </row>
-    <row r="20" ht="15.75" spans="1:5">
-      <c r="A20" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B20" s="54" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B20" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="60"/>
-    </row>
-    <row r="21" ht="15.75" spans="1:5">
-      <c r="A21" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B21" s="57" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="56"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="40">
+        <v>44056</v>
+      </c>
+      <c r="B21" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-    </row>
-    <row r="22" ht="15.75" spans="1:5">
-      <c r="A22" s="44">
-        <v>44055</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="40"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -3412,33 +2840,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="7.2" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="2:3">
+    <row r="1" spans="1:4" ht="27" customHeight="1">
       <c r="B1" s="14"/>
       <c r="C1" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>60</v>
       </c>
@@ -3452,7 +2880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" spans="1:4">
+    <row r="3" spans="1:4" s="12" customFormat="1">
       <c r="A3" s="17" t="s">
         <v>64</v>
       </c>
@@ -3464,7 +2892,7 @@
       </c>
       <c r="D3" s="20"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A4" s="21" t="s">
         <v>67</v>
       </c>
@@ -3476,7 +2904,7 @@
       </c>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A5" s="21" t="s">
         <v>70</v>
       </c>
@@ -3488,7 +2916,7 @@
       </c>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="35.25" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>73</v>
       </c>
@@ -3500,7 +2928,7 @@
       </c>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" ht="31.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="7" spans="1:4" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A7" s="21" t="s">
         <v>76</v>
       </c>
@@ -3512,7 +2940,7 @@
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" ht="80.25" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="8" spans="1:4" ht="80.25" customHeight="1" outlineLevel="1">
       <c r="A8" s="21" t="s">
         <v>79</v>
       </c>
@@ -3524,7 +2952,7 @@
       </c>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="21" t="s">
         <v>82</v>
       </c>
@@ -3536,19 +2964,19 @@
       </c>
       <c r="D9" s="24"/>
     </row>
-    <row r="10" ht="49.2" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="49.15" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="24"/>
     </row>
-    <row r="11" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A11" s="22" t="s">
         <v>88</v>
       </c>
@@ -3560,7 +2988,7 @@
       </c>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A12" s="22" t="s">
         <v>91</v>
       </c>
@@ -3572,7 +3000,7 @@
       </c>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>94</v>
       </c>
@@ -3584,7 +3012,7 @@
       </c>
       <c r="D13" s="24"/>
     </row>
-    <row r="14" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A14" s="22" t="s">
         <v>97</v>
       </c>
@@ -3596,7 +3024,7 @@
       </c>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A15" s="22" t="s">
         <v>100</v>
       </c>
@@ -3608,7 +3036,7 @@
       </c>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A16" s="22" t="s">
         <v>103</v>
       </c>
@@ -3620,7 +3048,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A17" s="22" t="s">
         <v>106</v>
       </c>
@@ -3632,7 +3060,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A18" s="22" t="s">
         <v>109</v>
       </c>
@@ -3644,7 +3072,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A19" s="22" t="s">
         <v>112</v>
       </c>
@@ -3656,7 +3084,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A20" s="22" t="s">
         <v>115</v>
       </c>
@@ -3668,19 +3096,19 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="31" t="s">
         <v>120</v>
       </c>
       <c r="D21" s="20"/>
     </row>
-    <row r="22" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A22" s="22" t="s">
         <v>121</v>
       </c>
@@ -3692,7 +3120,7 @@
       </c>
       <c r="D22" s="27"/>
     </row>
-    <row r="23" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A23" s="22" t="s">
         <v>124</v>
       </c>
@@ -3704,7 +3132,7 @@
       </c>
       <c r="D23" s="27"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A24" s="22" t="s">
         <v>127</v>
       </c>
@@ -3716,106 +3144,41 @@
       </c>
       <c r="D24" s="27"/>
     </row>
-    <row r="25" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A25" s="33"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A27" s="33"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A28" s="33"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A29" s="33"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A30" s="33"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A32" s="33"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A33" s="33"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A34" s="33"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A35" s="33"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="39" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="39" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="35" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="39" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="35" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="39" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="39" t="s">
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="35" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
@@ -3826,7 +3189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3837,14 +3200,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="6.1" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="84.5" customWidth="1"/>
-    <col min="3" max="3" width="48.4" customWidth="1"/>
+    <col min="3" max="3" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>135</v>
@@ -3858,37 +3221,37 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" outlineLevel="1" spans="1:2">
+    <row r="3" spans="1:2" outlineLevel="1">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" outlineLevel="1" spans="1:2">
+    <row r="4" spans="1:2" ht="15" customHeight="1" outlineLevel="1">
       <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" outlineLevel="1" spans="1:2">
+    <row r="5" spans="1:2" outlineLevel="1">
       <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" outlineLevel="1" spans="1:2">
+    <row r="6" spans="1:2" outlineLevel="1">
       <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" outlineLevel="1" spans="1:2">
+    <row r="7" spans="1:2" outlineLevel="1">
       <c r="A7" s="10"/>
       <c r="B7" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" outlineLevel="1" spans="1:1">
+    <row r="8" spans="1:2" outlineLevel="1">
       <c r="A8" s="10"/>
     </row>
     <row r="9" spans="1:2">
@@ -3899,21 +3262,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" ht="59.25" customHeight="1" outlineLevel="1" collapsed="1" spans="1:2">
+    <row r="10" spans="1:2" ht="59.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A10" s="10"/>
       <c r="B10" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" outlineLevel="1" spans="1:2">
+    <row r="11" spans="1:2" outlineLevel="1">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" outlineLevel="1" spans="1:2">
+    <row r="12" spans="1:2" outlineLevel="1">
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" outlineLevel="1" spans="1:2">
+    <row r="13" spans="1:2" outlineLevel="1">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
     </row>
@@ -3925,21 +3288,21 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" ht="138" customHeight="1" outlineLevel="1" spans="1:2">
+    <row r="15" spans="1:2" ht="138" customHeight="1" outlineLevel="1">
       <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" outlineLevel="1" spans="1:2">
+    <row r="16" spans="1:2" outlineLevel="1">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" outlineLevel="1" spans="1:2">
+    <row r="17" spans="1:2" outlineLevel="1">
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" outlineLevel="1" spans="1:2">
+    <row r="18" spans="1:2" outlineLevel="1">
       <c r="A18" s="10"/>
       <c r="B18" s="7"/>
     </row>
@@ -3951,21 +3314,21 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" ht="93.75" customHeight="1" outlineLevel="1" spans="1:2">
+    <row r="20" spans="1:2" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A20" s="10"/>
       <c r="B20" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" outlineLevel="1" spans="1:2">
+    <row r="21" spans="1:2" outlineLevel="1">
       <c r="A21" s="10"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" outlineLevel="1" spans="1:2">
+    <row r="22" spans="1:2" outlineLevel="1">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" outlineLevel="1" spans="1:2">
+    <row r="23" spans="1:2" outlineLevel="1">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
     </row>
@@ -3977,15 +3340,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" outlineLevel="1" spans="1:2">
+    <row r="25" spans="1:2" outlineLevel="1">
       <c r="A25" s="10"/>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" outlineLevel="1" spans="1:2">
+    <row r="26" spans="1:2" outlineLevel="1">
       <c r="A26" s="10"/>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" outlineLevel="1" spans="1:2">
+    <row r="27" spans="1:2" outlineLevel="1">
       <c r="A27" s="10"/>
       <c r="B27" s="7"/>
     </row>
@@ -3997,15 +3360,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" outlineLevel="1" spans="1:2">
+    <row r="29" spans="1:2" outlineLevel="1">
       <c r="A29" s="10"/>
       <c r="B29" s="7"/>
     </row>
-    <row r="30" outlineLevel="1" spans="1:2">
+    <row r="30" spans="1:2" outlineLevel="1">
       <c r="A30" s="10"/>
       <c r="B30" s="7"/>
     </row>
-    <row r="31" outlineLevel="1" spans="1:2">
+    <row r="31" spans="1:2" outlineLevel="1">
       <c r="A31" s="10"/>
       <c r="B31" s="7"/>
     </row>
@@ -4017,15 +3380,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" outlineLevel="1" spans="1:2">
+    <row r="33" spans="1:2" outlineLevel="1">
       <c r="A33" s="10"/>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" outlineLevel="1" spans="1:2">
+    <row r="34" spans="1:2" outlineLevel="1">
       <c r="A34" s="10"/>
       <c r="B34" s="7"/>
     </row>
-    <row r="35" outlineLevel="1" spans="1:2">
+    <row r="35" spans="1:2" outlineLevel="1">
       <c r="A35" s="10"/>
       <c r="B35" s="7"/>
     </row>
@@ -4037,20 +3400,20 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" outlineLevel="1" spans="1:2">
+    <row r="37" spans="1:2" outlineLevel="1">
       <c r="A37" s="10"/>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" outlineLevel="1" spans="1:2">
+    <row r="38" spans="1:2" outlineLevel="1">
       <c r="A38" s="10"/>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" outlineLevel="1" spans="1:2">
+    <row r="39" spans="1:2" outlineLevel="1">
       <c r="A39" s="10"/>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" outlineLevel="1"/>
-    <row r="41" outlineLevel="1"/>
+    <row r="40" spans="1:2" outlineLevel="1"/>
+    <row r="41" spans="1:2" outlineLevel="1"/>
     <row r="42" spans="1:2">
       <c r="A42" s="10">
         <v>9</v>
@@ -4059,15 +3422,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" outlineLevel="1"/>
-    <row r="44" outlineLevel="1"/>
-    <row r="45" outlineLevel="1"/>
-    <row r="46" outlineLevel="1"/>
+    <row r="43" spans="1:2" outlineLevel="1"/>
+    <row r="44" spans="1:2" outlineLevel="1"/>
+    <row r="45" spans="1:2" outlineLevel="1"/>
+    <row r="46" spans="1:2" outlineLevel="1"/>
     <row r="56" spans="2:2">
       <c r="B56" s="11"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
@@ -4078,7 +3442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4088,134 +3452,135 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7" customWidth="1"/>
+    <col min="2" max="2" width="70.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1" spans="2:2">
+    <row r="1" spans="1:2" ht="31.5" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="2:2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1" spans="1:2">
+    <row r="6" spans="1:2" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1" spans="2:2">
+    <row r="7" spans="1:2" ht="16.5" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1" spans="1:2">
+    <row r="8" spans="1:2" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" ht="16.5" customHeight="1" spans="2:2">
+    <row r="9" spans="1:2" ht="16.5" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1" spans="1:2">
+    <row r="10" spans="1:2" ht="16.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" ht="16.5" customHeight="1" spans="2:2">
+    <row r="11" spans="1:2" ht="16.5" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1" spans="1:2">
+    <row r="12" spans="1:2" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1" spans="2:2">
+    <row r="13" spans="1:2" ht="16.5" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1" spans="1:2">
+    <row r="14" spans="1:2" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1" spans="2:2">
+    <row r="15" spans="1:2" ht="16.5" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1" spans="1:2">
+    <row r="16" spans="1:2" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1" spans="2:2">
+    <row r="17" spans="1:2" ht="16.5" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1" spans="1:2">
+    <row r="18" spans="1:2" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" ht="16.5" customHeight="1" spans="2:2">
+    <row r="19" spans="1:2" ht="16.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2">
       <c r="B20" s="4"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
       <c r="B26" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"幼圆,常规"&amp;9&amp;U&amp;A&amp;R&amp;"幼圆,常规"&amp;9版本：1.0.0-0.0.1  第&amp;P页</oddHeader>
     <oddFooter>&amp;C&amp;"幼圆,常规"&amp;9沈阳东软软件股份有限公司</oddFooter>
@@ -4224,7 +3589,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4236,12 +3608,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="6" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -4252,30 +3633,14 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4293,7 +3658,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4302,6 +3667,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -4310,17 +3684,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
